--- a/biology/Zoologie/Aculithus_subfabiformis/Aculithus_subfabiformis.xlsx
+++ b/biology/Zoologie/Aculithus_subfabiformis/Aculithus_subfabiformis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aculithus subfabiformis est une espèce d'araignées aranéomorphes de la famille des Phrurolithidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aculithus subfabiformis est une espèce d'araignées aranéomorphes de la famille des Phrurolithidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Jiangxi en Chine[1],[2]. Elle se rencontre dans le xian d'Anfu.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Jiangxi en Chine,. Elle se rencontre dans le xian d'Anfu.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 2,39 mm et la femelle paratype 2,54 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 2,39 mm et la femelle paratype 2,54 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Otacilia subfabiformis par Liu, Luo, Ying, Xiao, Xu et Xiao en 2020. Elle est placée dans le genre Aculithus par Liu, Li, Zhang, Ying, Meng, Fei, Li, Xiao et Xu en 2022[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Otacilia subfabiformis par Liu, Luo, Ying, Xiao, Xu et Xiao en 2020. Elle est placée dans le genre Aculithus par Liu, Li, Zhang, Ying, Meng, Fei, Li, Xiao et Xu en 2022.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Liu, Ying, Xiao, Yan &amp; Xiao, 2020 : « Eight new species of Otacilia (Araneae: Phrurolithidae) from southern China. » ZooKeys, no 979, p. 1-33 (texte intégral).</t>
         </is>
